--- a/tbd_stats.xlsx
+++ b/tbd_stats.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/annahe/Documents/tbd_stats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D58C187D-9EE2-9A4D-B52C-0C5C478D5F19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B5A1038-9685-EA4A-A321-80FDD37212FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15320" yWindow="780" windowWidth="18880" windowHeight="18720" activeTab="1" xr2:uid="{D9BD3C22-72EA-B345-8325-8B55D0171566}"/>
+    <workbookView xWindow="17220" yWindow="760" windowWidth="16980" windowHeight="21380" activeTab="1" xr2:uid="{D9BD3C22-72EA-B345-8325-8B55D0171566}"/>
   </bookViews>
   <sheets>
     <sheet name="2024" sheetId="2" r:id="rId1"/>
     <sheet name="2025" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="44">
   <si>
     <t>date</t>
   </si>
@@ -50,9 +63,6 @@
     <t>route</t>
   </si>
   <si>
-    <t>WOD</t>
-  </si>
-  <si>
     <t>ART-MBT</t>
   </si>
   <si>
@@ -68,9 +78,6 @@
     <t>Bethesda Bagel</t>
   </si>
   <si>
-    <t>Oxen Hill</t>
-  </si>
-  <si>
     <t>CCT-RCP</t>
   </si>
   <si>
@@ -92,9 +99,6 @@
     <t>Mt Rainier Farmers Market</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
     <t>Military-WOD</t>
   </si>
   <si>
@@ -123,13 +127,52 @@
   </si>
   <si>
     <t>CCT Trailhead</t>
+  </si>
+  <si>
+    <t>Coffefi</t>
+  </si>
+  <si>
+    <t>Navy Yard</t>
+  </si>
+  <si>
+    <t>St. Elmo's</t>
+  </si>
+  <si>
+    <t>NOVA Loop</t>
+  </si>
+  <si>
+    <t>Arlington Cemetery</t>
+  </si>
+  <si>
+    <t>ART-Sligo-MBT</t>
+  </si>
+  <si>
+    <t>Oxon Hill-Crystal City</t>
+  </si>
+  <si>
+    <t>Military-WOD-MVT</t>
+  </si>
+  <si>
+    <t>MVT-WOD</t>
+  </si>
+  <si>
+    <t>Coffee Republic</t>
+  </si>
+  <si>
+    <t>Olivia's Kitchen</t>
+  </si>
+  <si>
+    <t>Weenie Beenie</t>
+  </si>
+  <si>
+    <t>Myung Ga Kimbap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -260,6 +303,13 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -612,10 +662,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1442,13 +1493,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F043A6F9-72FB-ED4F-A805-D38EC3B6177C}">
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -1458,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" t="s">
         <v>8</v>
@@ -1483,8 +1540,11 @@
       <c r="B2" t="b">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>9</v>
+      <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="E2" t="b">
         <v>0</v>
@@ -1494,6 +1554,9 @@
       </c>
       <c r="G2">
         <v>10</v>
+      </c>
+      <c r="H2">
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
@@ -1508,6 +1571,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
@@ -1516,11 +1580,23 @@
       <c r="B4" t="b">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" t="b">
         <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>11</v>
       </c>
       <c r="G4">
         <v>8</v>
+      </c>
+      <c r="H4">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1535,6 +1611,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
@@ -1543,11 +1620,23 @@
       <c r="B6" t="b">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" t="b">
         <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
       </c>
       <c r="G6">
         <v>14</v>
+      </c>
+      <c r="H6">
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1562,6 +1651,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -1570,11 +1660,23 @@
       <c r="B8" t="b">
         <v>1</v>
       </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
       <c r="E8" t="b">
         <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>12</v>
       </c>
       <c r="G8">
         <v>6</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1584,11 +1686,23 @@
       <c r="B9" t="b">
         <v>1</v>
       </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
       <c r="E9" t="b">
         <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
       </c>
       <c r="G9">
         <v>8</v>
+      </c>
+      <c r="H9">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1598,11 +1712,23 @@
       <c r="B10" t="b">
         <v>1</v>
       </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>39</v>
+      </c>
       <c r="E10" t="b">
         <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>7</v>
       </c>
       <c r="G10">
         <v>8</v>
+      </c>
+      <c r="H10">
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1612,11 +1738,23 @@
       <c r="B11" t="b">
         <v>1</v>
       </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
       <c r="E11" t="b">
         <v>0</v>
+      </c>
+      <c r="F11" t="s">
+        <v>16</v>
       </c>
       <c r="G11">
         <v>9</v>
+      </c>
+      <c r="H11">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -1626,11 +1764,23 @@
       <c r="B12" t="b">
         <v>1</v>
       </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>9</v>
+      </c>
       <c r="E12" t="b">
         <v>0</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
       </c>
       <c r="G12">
         <v>14</v>
+      </c>
+      <c r="H12">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -1640,11 +1790,23 @@
       <c r="B13" t="b">
         <v>1</v>
       </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" t="b">
         <v>0</v>
+      </c>
+      <c r="F13" t="s">
+        <v>11</v>
       </c>
       <c r="G13">
         <v>12</v>
+      </c>
+      <c r="H13">
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -1654,11 +1816,23 @@
       <c r="B14" t="b">
         <v>1</v>
       </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
       <c r="E14" t="b">
         <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>40</v>
       </c>
       <c r="G14">
         <v>14</v>
+      </c>
+      <c r="H14">
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1668,6 +1842,12 @@
       <c r="B15" t="b">
         <v>1</v>
       </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" t="b">
         <v>0</v>
       </c>
@@ -1676,6 +1856,9 @@
       </c>
       <c r="G15">
         <v>10</v>
+      </c>
+      <c r="H15">
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
@@ -1685,79 +1868,115 @@
       <c r="B16" t="b">
         <v>1</v>
       </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>39</v>
+      </c>
       <c r="E16" t="b">
         <v>0</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G16">
         <v>10</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>45766</v>
       </c>
       <c r="B17" t="b">
         <v>1</v>
       </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
       <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="b">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
         <v>10</v>
-      </c>
-      <c r="E17" t="b">
-        <v>0</v>
-      </c>
-      <c r="F17" t="s">
-        <v>11</v>
       </c>
       <c r="G17">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>45772</v>
       </c>
       <c r="B18" t="b">
         <v>1</v>
       </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" t="b">
         <v>0</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G18">
         <v>10</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>45780</v>
       </c>
       <c r="B19" t="b">
         <v>1</v>
       </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
       <c r="E19" t="b">
         <v>0</v>
       </c>
       <c r="F19" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G19">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H19">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>45787</v>
       </c>
       <c r="B20" t="b">
         <v>1</v>
       </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -1768,74 +1987,101 @@
       <c r="G20">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>45794</v>
       </c>
       <c r="B21" t="b">
         <v>1</v>
       </c>
+      <c r="C21" t="s">
+        <v>32</v>
+      </c>
       <c r="D21" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G21">
         <v>11</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>45801</v>
       </c>
       <c r="B22" t="b">
         <v>0</v>
       </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G22">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H22">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>45808</v>
       </c>
       <c r="B23" t="b">
         <v>1</v>
       </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E23" t="b">
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G23">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>45815</v>
       </c>
       <c r="B24" t="b">
         <v>1</v>
       </c>
+      <c r="C24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="E24" t="b">
         <v>0</v>
       </c>
@@ -1845,8 +2091,11 @@
       <c r="G24">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>45822</v>
       </c>
@@ -1858,28 +2107,35 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>45829</v>
       </c>
       <c r="B26" t="b">
         <v>1</v>
       </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G26">
         <v>6</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H26">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>45836</v>
       </c>
@@ -1887,138 +2143,192 @@
         <v>1</v>
       </c>
       <c r="C27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
       </c>
       <c r="F27" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G27">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>45843</v>
       </c>
       <c r="B28" t="b">
         <v>1</v>
       </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
       <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="b">
+        <v>0</v>
+      </c>
+      <c r="F28" t="s">
         <v>10</v>
-      </c>
-      <c r="E28" t="b">
-        <v>0</v>
-      </c>
-      <c r="F28" t="s">
-        <v>11</v>
       </c>
       <c r="G28">
         <v>8</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H28">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>45850</v>
       </c>
       <c r="B29" t="b">
         <v>1</v>
       </c>
+      <c r="C29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" t="s">
+        <v>26</v>
+      </c>
       <c r="E29" t="b">
         <v>0</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G29">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>45857</v>
       </c>
       <c r="B30" t="b">
         <v>1</v>
       </c>
+      <c r="C30" t="s">
+        <v>24</v>
+      </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="E30" t="b">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G30">
         <v>11</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>45864</v>
       </c>
       <c r="B31" t="b">
         <v>1</v>
       </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
       </c>
       <c r="F31" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G31">
         <v>21</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>45871</v>
       </c>
       <c r="B32" t="b">
         <v>1</v>
       </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
       <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="b">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
         <v>10</v>
-      </c>
-      <c r="E32" t="b">
-        <v>0</v>
-      </c>
-      <c r="F32" t="s">
-        <v>11</v>
       </c>
       <c r="G32">
         <v>18</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H32">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>45878</v>
       </c>
       <c r="B33" t="b">
         <v>0</v>
       </c>
+      <c r="C33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
       <c r="E33" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33">
+        <v>2</v>
+      </c>
+      <c r="H33">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>45885</v>
       </c>
       <c r="B34" t="b">
         <v>1</v>
       </c>
+      <c r="C34" t="s">
+        <v>35</v>
+      </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -2029,73 +2339,115 @@
       <c r="G34">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>45892</v>
       </c>
       <c r="B35" t="b">
         <v>1</v>
       </c>
+      <c r="C35" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" t="s">
+        <v>26</v>
+      </c>
       <c r="E35" t="b">
         <v>0</v>
       </c>
       <c r="F35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G35">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H35">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>45899</v>
       </c>
       <c r="B36" t="b">
         <v>0</v>
       </c>
+      <c r="C36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" t="s">
+        <v>39</v>
+      </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36">
+        <v>8</v>
+      </c>
+      <c r="H36">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>45906</v>
       </c>
       <c r="B37" t="b">
         <v>1</v>
       </c>
+      <c r="C37" t="s">
+        <v>30</v>
+      </c>
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
       <c r="E37" t="b">
         <v>0</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G37">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H37">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>45913</v>
       </c>
       <c r="B38" t="b">
         <v>1</v>
       </c>
+      <c r="C38" t="s">
+        <v>32</v>
+      </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
       </c>
       <c r="F38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G38">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>45920</v>
       </c>
@@ -2103,22 +2455,25 @@
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E39" t="b">
         <v>0</v>
       </c>
       <c r="F39" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G39">
         <v>11</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H39">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>45927</v>
       </c>
@@ -2126,22 +2481,25 @@
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G40">
         <v>9</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H40">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>45934</v>
       </c>
@@ -2149,22 +2507,25 @@
         <v>1</v>
       </c>
       <c r="C41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D41" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E41" t="b">
         <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G41">
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>45941</v>
       </c>
@@ -2172,22 +2533,25 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G42">
         <v>11</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H42">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>45948</v>
       </c>
@@ -2195,68 +2559,220 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D43" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E43" t="b">
         <v>0</v>
       </c>
       <c r="F43" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G43">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H43">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>45955</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="b">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" t="b">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44">
+        <v>14</v>
+      </c>
+      <c r="H44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>45962</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="b">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+      <c r="E45" t="b">
+        <v>0</v>
+      </c>
+      <c r="F45" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45">
+        <v>6</v>
+      </c>
+      <c r="H45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
+        <v>45963</v>
+      </c>
+      <c r="B46" t="b">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>25</v>
+      </c>
+      <c r="D46" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" t="b">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46">
+        <v>10</v>
+      </c>
+      <c r="H46">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="1">
         <v>45969</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1">
+      <c r="B47" t="b">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47">
+        <v>11</v>
+      </c>
+      <c r="H47">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
         <v>45976</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1">
+      <c r="B48" t="b">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>30</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="s">
+        <v>28</v>
+      </c>
+      <c r="G48">
+        <v>5</v>
+      </c>
+      <c r="H48">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A49" s="1">
         <v>45983</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="1">
+      <c r="B49" t="b">
+        <v>0</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" s="1">
         <v>45990</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="1">
+      <c r="B50" t="b">
+        <v>0</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
         <v>45997</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="B51" t="b">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>32</v>
+      </c>
+      <c r="D51" t="s">
+        <v>37</v>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G51">
+        <v>6</v>
+      </c>
+      <c r="H51">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
         <v>46004</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="1">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="1">
         <v>46011</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A53" s="1">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="1">
         <v>46018</v>
       </c>
     </row>
